--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -1158,76 +1158,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -6414,301 +6414,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>381</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>382</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>383</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>384</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>385</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>386</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>387</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>388</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>389</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>390</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>391</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>392</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>393</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>394</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>395</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>396</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>397</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>398</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>399</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>400</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>401</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>402</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>403</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>404</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>382</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -6831,7 +6831,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="420">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -1225,6 +1225,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -6663,7 +6666,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -6708,7 +6711,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -6771,13 +6774,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -6789,13 +6792,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="EB2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="EC2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -6804,13 +6807,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="EG2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="EH2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -6843,19 +6846,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="ET2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="EU2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -6886,10 +6889,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="425">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -276,10 +276,7 @@
     <t>Haliclona</t>
   </si>
   <si>
-    <t>sp.nov.</t>
-  </si>
-  <si>
-    <t>Reported as Reniera sp.nov. "Adocia originally included Haplosclerida with Haliclona skeletal structure and a distinct ectosome. The genus was synonymized with Haliclona subgenus Haliclona by de Weerdt, W.H. (2002) in Systema Porifera" (Bruce Ott pers. comm., 2021).</t>
+    <t>Reported as Reniera sp. "Adocia originally included Haplosclerida with Haliclona skeletal structure and a distinct ectosome. The genus Adocia was synonymized with Haliclona subgenus Haliclona by de Weerdt (2002) in Systema Porifera (Hooper and van Soest 2002)" (Bruce Ott pers. comm. 2021).</t>
   </si>
   <si>
     <t>873877</t>
@@ -591,12 +588,6 @@
     <t>villosa</t>
   </si>
   <si>
-    <t>247194</t>
-  </si>
-  <si>
-    <t>Tetilla</t>
-  </si>
-  <si>
     <t>213993</t>
   </si>
   <si>
@@ -807,6 +798,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -1179,7 +1179,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -1194,6 +1194,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1203,6 +1212,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -1237,6 +1249,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1649,7 +1664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2751,54 +2766,54 @@
         <v>86</v>
       </c>
       <c r="T11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH11" t="s">
         <v>87</v>
-      </c>
-      <c r="U11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -2837,19 +2852,19 @@
         <v>36</v>
       </c>
       <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s">
         <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" t="s">
-        <v>91</v>
       </c>
       <c r="S12" t="s">
         <v>36</v>
@@ -2902,7 +2917,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -2941,37 +2956,37 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="O13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
         <v>94</v>
       </c>
-      <c r="S13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" t="s">
         <v>95</v>
-      </c>
-      <c r="U13" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" t="s">
-        <v>36</v>
-      </c>
-      <c r="W13" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" t="s">
-        <v>96</v>
       </c>
       <c r="Y13" t="s">
         <v>36</v>
@@ -3006,7 +3021,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
@@ -3033,49 +3048,49 @@
         <v>36</v>
       </c>
       <c r="J14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" t="s">
         <v>98</v>
       </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s">
         <v>99</v>
       </c>
-      <c r="O14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s">
         <v>100</v>
       </c>
-      <c r="S14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" t="s">
         <v>101</v>
-      </c>
-      <c r="U14" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" t="s">
-        <v>36</v>
-      </c>
-      <c r="X14" t="s">
-        <v>102</v>
       </c>
       <c r="Y14" t="s">
         <v>36</v>
@@ -3110,7 +3125,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
@@ -3137,20 +3152,20 @@
         <v>36</v>
       </c>
       <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" t="s">
         <v>98</v>
       </c>
-      <c r="K15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
-        <v>99</v>
-      </c>
       <c r="O15" t="s">
         <v>36</v>
       </c>
@@ -3161,25 +3176,25 @@
         <v>36</v>
       </c>
       <c r="R15" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
         <v>104</v>
       </c>
-      <c r="S15" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" t="s">
         <v>105</v>
-      </c>
-      <c r="U15" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W15" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" t="s">
-        <v>106</v>
       </c>
       <c r="Y15" t="s">
         <v>36</v>
@@ -3214,7 +3229,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -3241,7 +3256,7 @@
         <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
         <v>36</v>
@@ -3253,37 +3268,37 @@
         <v>36</v>
       </c>
       <c r="N16" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" t="s">
         <v>108</v>
       </c>
-      <c r="O16" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
         <v>109</v>
       </c>
-      <c r="S16" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" t="s">
         <v>110</v>
-      </c>
-      <c r="U16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" t="s">
-        <v>36</v>
-      </c>
-      <c r="X16" t="s">
-        <v>111</v>
       </c>
       <c r="Y16" t="s">
         <v>36</v>
@@ -3318,7 +3333,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -3345,7 +3360,7 @@
         <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s">
         <v>36</v>
@@ -3357,7 +3372,7 @@
         <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O17" t="s">
         <v>36</v>
@@ -3369,14 +3384,14 @@
         <v>36</v>
       </c>
       <c r="R17" t="s">
+        <v>112</v>
+      </c>
+      <c r="S17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s">
         <v>113</v>
       </c>
-      <c r="S17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s">
-        <v>114</v>
-      </c>
       <c r="U17" t="s">
         <v>36</v>
       </c>
@@ -3387,7 +3402,7 @@
         <v>36</v>
       </c>
       <c r="X17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y17" t="s">
         <v>36</v>
@@ -3422,7 +3437,7 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -3449,7 +3464,7 @@
         <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s">
         <v>36</v>
@@ -3461,19 +3476,19 @@
         <v>36</v>
       </c>
       <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" t="s">
         <v>116</v>
-      </c>
-      <c r="O18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R18" t="s">
-        <v>117</v>
       </c>
       <c r="S18" t="s">
         <v>36</v>
@@ -3526,7 +3541,7 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -3553,7 +3568,7 @@
         <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
         <v>36</v>
@@ -3565,37 +3580,37 @@
         <v>36</v>
       </c>
       <c r="N19" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" t="s">
         <v>119</v>
       </c>
-      <c r="O19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>36</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s">
         <v>120</v>
       </c>
-      <c r="S19" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" t="s">
         <v>121</v>
-      </c>
-      <c r="U19" t="s">
-        <v>36</v>
-      </c>
-      <c r="V19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" t="s">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s">
-        <v>122</v>
       </c>
       <c r="Y19" t="s">
         <v>36</v>
@@ -3630,7 +3645,7 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -3657,7 +3672,7 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s">
         <v>36</v>
@@ -3669,37 +3684,37 @@
         <v>36</v>
       </c>
       <c r="N20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" t="s">
         <v>124</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20" t="s">
         <v>125</v>
       </c>
-      <c r="P20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>126</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>127</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" t="s">
         <v>128</v>
-      </c>
-      <c r="U20" t="s">
-        <v>36</v>
-      </c>
-      <c r="V20" t="s">
-        <v>36</v>
-      </c>
-      <c r="W20" t="s">
-        <v>36</v>
-      </c>
-      <c r="X20" t="s">
-        <v>129</v>
       </c>
       <c r="Y20" t="s">
         <v>36</v>
@@ -3734,7 +3749,7 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -3761,7 +3776,7 @@
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
         <v>36</v>
@@ -3773,37 +3788,37 @@
         <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O21" t="s">
+        <v>130</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s">
         <v>131</v>
       </c>
-      <c r="P21" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>36</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>132</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>133</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" t="s">
         <v>134</v>
-      </c>
-      <c r="U21" t="s">
-        <v>36</v>
-      </c>
-      <c r="V21" t="s">
-        <v>36</v>
-      </c>
-      <c r="W21" t="s">
-        <v>36</v>
-      </c>
-      <c r="X21" t="s">
-        <v>135</v>
       </c>
       <c r="Y21" t="s">
         <v>36</v>
@@ -3838,7 +3853,7 @@
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -3865,7 +3880,7 @@
         <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
         <v>36</v>
@@ -3877,26 +3892,26 @@
         <v>36</v>
       </c>
       <c r="N22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" t="s">
         <v>137</v>
       </c>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>36</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>138</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>139</v>
       </c>
-      <c r="T22" t="s">
-        <v>140</v>
-      </c>
       <c r="U22" t="s">
         <v>36</v>
       </c>
@@ -3907,7 +3922,7 @@
         <v>36</v>
       </c>
       <c r="X22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y22" t="s">
         <v>36</v>
@@ -3942,7 +3957,7 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -3969,7 +3984,7 @@
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
@@ -3981,37 +3996,37 @@
         <v>36</v>
       </c>
       <c r="N23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" t="s">
         <v>142</v>
       </c>
-      <c r="O23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>36</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
+        <v>142</v>
+      </c>
+      <c r="T23" t="s">
         <v>143</v>
       </c>
-      <c r="S23" t="s">
-        <v>143</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" t="s">
         <v>144</v>
-      </c>
-      <c r="U23" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W23" t="s">
-        <v>36</v>
-      </c>
-      <c r="X23" t="s">
-        <v>145</v>
       </c>
       <c r="Y23" t="s">
         <v>36</v>
@@ -4046,7 +4061,7 @@
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
@@ -4073,7 +4088,7 @@
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
         <v>36</v>
@@ -4085,37 +4100,37 @@
         <v>36</v>
       </c>
       <c r="N24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>36</v>
+      </c>
+      <c r="R24" t="s">
         <v>142</v>
       </c>
-      <c r="O24" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>36</v>
-      </c>
-      <c r="R24" t="s">
-        <v>143</v>
-      </c>
       <c r="S24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T24" t="s">
+        <v>146</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" t="s">
         <v>147</v>
-      </c>
-      <c r="U24" t="s">
-        <v>36</v>
-      </c>
-      <c r="V24" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" t="s">
-        <v>36</v>
-      </c>
-      <c r="X24" t="s">
-        <v>148</v>
       </c>
       <c r="Y24" t="s">
         <v>36</v>
@@ -4150,7 +4165,7 @@
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
@@ -4177,37 +4192,37 @@
         <v>36</v>
       </c>
       <c r="J25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" t="s">
         <v>150</v>
       </c>
-      <c r="K25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>36</v>
+      </c>
+      <c r="R25" t="s">
         <v>151</v>
       </c>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>36</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
         <v>152</v>
-      </c>
-      <c r="S25" t="s">
-        <v>36</v>
-      </c>
-      <c r="T25" t="s">
-        <v>153</v>
       </c>
       <c r="U25" t="s">
         <v>36</v>
@@ -4254,7 +4269,7 @@
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
@@ -4281,20 +4296,20 @@
         <v>36</v>
       </c>
       <c r="J26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" t="s">
         <v>150</v>
       </c>
-      <c r="K26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" t="s">
-        <v>151</v>
-      </c>
       <c r="O26" t="s">
         <v>36</v>
       </c>
@@ -4305,25 +4320,25 @@
         <v>36</v>
       </c>
       <c r="R26" t="s">
+        <v>154</v>
+      </c>
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
         <v>155</v>
       </c>
-      <c r="S26" t="s">
-        <v>36</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" t="s">
         <v>156</v>
-      </c>
-      <c r="U26" t="s">
-        <v>36</v>
-      </c>
-      <c r="V26" t="s">
-        <v>36</v>
-      </c>
-      <c r="W26" t="s">
-        <v>36</v>
-      </c>
-      <c r="X26" t="s">
-        <v>157</v>
       </c>
       <c r="Y26" t="s">
         <v>36</v>
@@ -4358,7 +4373,7 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -4385,49 +4400,49 @@
         <v>36</v>
       </c>
       <c r="J27" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" t="s">
         <v>159</v>
       </c>
-      <c r="K27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" t="s">
-        <v>36</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s">
         <v>160</v>
       </c>
-      <c r="O27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
+        <v>160</v>
+      </c>
+      <c r="T27" t="s">
         <v>161</v>
       </c>
-      <c r="S27" t="s">
-        <v>161</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s">
         <v>162</v>
-      </c>
-      <c r="U27" t="s">
-        <v>36</v>
-      </c>
-      <c r="V27" t="s">
-        <v>36</v>
-      </c>
-      <c r="W27" t="s">
-        <v>36</v>
-      </c>
-      <c r="X27" t="s">
-        <v>163</v>
       </c>
       <c r="Y27" t="s">
         <v>36</v>
@@ -4462,7 +4477,7 @@
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
@@ -4489,49 +4504,49 @@
         <v>36</v>
       </c>
       <c r="J28" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
         <v>159</v>
       </c>
-      <c r="K28" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s">
         <v>160</v>
       </c>
-      <c r="O28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>36</v>
-      </c>
-      <c r="R28" t="s">
-        <v>161</v>
-      </c>
       <c r="S28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T28" t="s">
+        <v>164</v>
+      </c>
+      <c r="U28" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s">
         <v>165</v>
-      </c>
-      <c r="U28" t="s">
-        <v>36</v>
-      </c>
-      <c r="V28" t="s">
-        <v>36</v>
-      </c>
-      <c r="W28" t="s">
-        <v>36</v>
-      </c>
-      <c r="X28" t="s">
-        <v>166</v>
       </c>
       <c r="Y28" t="s">
         <v>36</v>
@@ -4566,7 +4581,7 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -4593,49 +4608,49 @@
         <v>36</v>
       </c>
       <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" t="s">
         <v>159</v>
       </c>
-      <c r="K29" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" t="s">
         <v>160</v>
       </c>
-      <c r="O29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R29" t="s">
-        <v>161</v>
-      </c>
       <c r="S29" t="s">
+        <v>167</v>
+      </c>
+      <c r="T29" t="s">
         <v>168</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" t="s">
         <v>169</v>
-      </c>
-      <c r="U29" t="s">
-        <v>36</v>
-      </c>
-      <c r="V29" t="s">
-        <v>36</v>
-      </c>
-      <c r="W29" t="s">
-        <v>36</v>
-      </c>
-      <c r="X29" t="s">
-        <v>170</v>
       </c>
       <c r="Y29" t="s">
         <v>36</v>
@@ -4670,7 +4685,7 @@
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
         <v>35</v>
@@ -4697,7 +4712,7 @@
         <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s">
         <v>36</v>
@@ -4709,37 +4724,37 @@
         <v>36</v>
       </c>
       <c r="N30" t="s">
+        <v>171</v>
+      </c>
+      <c r="O30" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" t="s">
         <v>172</v>
       </c>
-      <c r="O30" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" t="s">
         <v>173</v>
       </c>
-      <c r="S30" t="s">
-        <v>36</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" t="s">
+        <v>36</v>
+      </c>
+      <c r="W30" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" t="s">
         <v>174</v>
-      </c>
-      <c r="U30" t="s">
-        <v>36</v>
-      </c>
-      <c r="V30" t="s">
-        <v>36</v>
-      </c>
-      <c r="W30" t="s">
-        <v>36</v>
-      </c>
-      <c r="X30" t="s">
-        <v>175</v>
       </c>
       <c r="Y30" t="s">
         <v>36</v>
@@ -4774,7 +4789,7 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -4801,7 +4816,7 @@
         <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s">
         <v>36</v>
@@ -4813,7 +4828,7 @@
         <v>36</v>
       </c>
       <c r="N31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O31" t="s">
         <v>36</v>
@@ -4825,25 +4840,25 @@
         <v>36</v>
       </c>
       <c r="R31" t="s">
+        <v>176</v>
+      </c>
+      <c r="S31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s">
         <v>177</v>
       </c>
-      <c r="S31" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" t="s">
+        <v>36</v>
+      </c>
+      <c r="W31" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" t="s">
         <v>178</v>
-      </c>
-      <c r="U31" t="s">
-        <v>36</v>
-      </c>
-      <c r="V31" t="s">
-        <v>36</v>
-      </c>
-      <c r="W31" t="s">
-        <v>36</v>
-      </c>
-      <c r="X31" t="s">
-        <v>179</v>
       </c>
       <c r="Y31" t="s">
         <v>36</v>
@@ -4878,7 +4893,7 @@
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -4905,7 +4920,7 @@
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K32" t="s">
         <v>36</v>
@@ -4917,7 +4932,7 @@
         <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O32" t="s">
         <v>36</v>
@@ -4929,13 +4944,13 @@
         <v>36</v>
       </c>
       <c r="R32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S32" t="s">
         <v>36</v>
       </c>
       <c r="T32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U32" t="s">
         <v>36</v>
@@ -4947,7 +4962,7 @@
         <v>36</v>
       </c>
       <c r="X32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y32" t="s">
         <v>36</v>
@@ -4982,7 +4997,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -5009,31 +5024,31 @@
         <v>36</v>
       </c>
       <c r="J33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" t="s">
         <v>183</v>
       </c>
-      <c r="K33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" t="s">
         <v>184</v>
-      </c>
-      <c r="O33" t="s">
-        <v>36</v>
-      </c>
-      <c r="P33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>36</v>
-      </c>
-      <c r="R33" t="s">
-        <v>185</v>
       </c>
       <c r="S33" t="s">
         <v>36</v>
@@ -5086,7 +5101,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -5113,38 +5128,38 @@
         <v>36</v>
       </c>
       <c r="J34" t="s">
+        <v>186</v>
+      </c>
+      <c r="K34" t="s">
         <v>187</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" t="s">
         <v>188</v>
       </c>
-      <c r="L34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" t="s">
-        <v>36</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" t="s">
         <v>189</v>
       </c>
-      <c r="O34" t="s">
-        <v>36</v>
-      </c>
-      <c r="P34" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" t="s">
         <v>190</v>
       </c>
-      <c r="S34" t="s">
-        <v>36</v>
-      </c>
-      <c r="T34" t="s">
-        <v>191</v>
-      </c>
       <c r="U34" t="s">
         <v>36</v>
       </c>
@@ -5155,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="X34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Y34" t="s">
         <v>36</v>
@@ -5190,7 +5205,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -5211,16 +5226,16 @@
         <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
         <v>36</v>
@@ -5229,7 +5244,7 @@
         <v>36</v>
       </c>
       <c r="N35" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O35" t="s">
         <v>36</v>
@@ -5241,13 +5256,13 @@
         <v>36</v>
       </c>
       <c r="R35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S35" t="s">
         <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -5259,7 +5274,7 @@
         <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Y35" t="s">
         <v>36</v>
@@ -5294,7 +5309,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -5315,43 +5330,43 @@
         <v>68</v>
       </c>
       <c r="H36" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>36</v>
+      </c>
+      <c r="R36" t="s">
         <v>195</v>
       </c>
-      <c r="I36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" t="s">
-        <v>196</v>
-      </c>
-      <c r="K36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" t="s">
-        <v>197</v>
-      </c>
-      <c r="O36" t="s">
-        <v>36</v>
-      </c>
-      <c r="P36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>36</v>
-      </c>
-      <c r="R36" t="s">
-        <v>198</v>
-      </c>
       <c r="S36" t="s">
         <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="U36" t="s">
         <v>36</v>
@@ -5363,7 +5378,7 @@
         <v>36</v>
       </c>
       <c r="X36" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="Y36" t="s">
         <v>36</v>
@@ -5398,7 +5413,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -5419,13 +5434,13 @@
         <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K37" t="s">
         <v>36</v>
@@ -5437,7 +5452,7 @@
         <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O37" t="s">
         <v>36</v>
@@ -5449,13 +5464,13 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
       </c>
       <c r="T37" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="U37" t="s">
         <v>36</v>
@@ -5502,7 +5517,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -5520,16 +5535,16 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="I38" t="s">
         <v>36</v>
       </c>
       <c r="J38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K38" t="s">
         <v>36</v>
@@ -5541,7 +5556,7 @@
         <v>36</v>
       </c>
       <c r="N38" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O38" t="s">
         <v>36</v>
@@ -5553,13 +5568,13 @@
         <v>36</v>
       </c>
       <c r="R38" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S38" t="s">
         <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="U38" t="s">
         <v>36</v>
@@ -5571,7 +5586,7 @@
         <v>36</v>
       </c>
       <c r="X38" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="Y38" t="s">
         <v>36</v>
@@ -5606,7 +5621,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -5624,16 +5639,16 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
       </c>
       <c r="J39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K39" t="s">
         <v>36</v>
@@ -5645,7 +5660,7 @@
         <v>36</v>
       </c>
       <c r="N39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O39" t="s">
         <v>36</v>
@@ -5657,13 +5672,13 @@
         <v>36</v>
       </c>
       <c r="R39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="S39" t="s">
         <v>36</v>
       </c>
       <c r="T39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="U39" t="s">
         <v>36</v>
@@ -5675,7 +5690,7 @@
         <v>36</v>
       </c>
       <c r="X39" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="Y39" t="s">
         <v>36</v>
@@ -5710,7 +5725,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -5728,16 +5743,16 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
         <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K40" t="s">
         <v>36</v>
@@ -5749,7 +5764,7 @@
         <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O40" t="s">
         <v>36</v>
@@ -5761,13 +5776,13 @@
         <v>36</v>
       </c>
       <c r="R40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S40" t="s">
         <v>36</v>
       </c>
       <c r="T40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U40" t="s">
         <v>36</v>
@@ -5779,7 +5794,7 @@
         <v>36</v>
       </c>
       <c r="X40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y40" t="s">
         <v>36</v>
@@ -5809,110 +5824,6 @@
         <v>36</v>
       </c>
       <c r="AH40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H41" t="s">
-        <v>207</v>
-      </c>
-      <c r="I41" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" t="s">
-        <v>213</v>
-      </c>
-      <c r="K41" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" t="s">
-        <v>214</v>
-      </c>
-      <c r="O41" t="s">
-        <v>36</v>
-      </c>
-      <c r="P41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>36</v>
-      </c>
-      <c r="R41" t="s">
-        <v>219</v>
-      </c>
-      <c r="S41" t="s">
-        <v>36</v>
-      </c>
-      <c r="T41" t="s">
-        <v>220</v>
-      </c>
-      <c r="U41" t="s">
-        <v>36</v>
-      </c>
-      <c r="V41" t="s">
-        <v>36</v>
-      </c>
-      <c r="W41" t="s">
-        <v>36</v>
-      </c>
-      <c r="X41" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5924,483 +5835,492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>224</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>226</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>227</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>228</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>229</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>230</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>231</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>233</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>234</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>235</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>236</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>237</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>239</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>240</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>241</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>242</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>243</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>244</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>245</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>246</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>247</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>248</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>249</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>250</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>251</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>252</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>253</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>254</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>255</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>256</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>257</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>258</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>259</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>260</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>261</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>262</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>263</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>264</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>265</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>266</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>267</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>268</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>269</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>270</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>271</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>272</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>273</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>274</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>275</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>276</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>277</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>278</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>279</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>280</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>281</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>282</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>283</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>284</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>285</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>286</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>287</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>288</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>289</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>290</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>291</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>292</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>293</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>294</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>295</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>296</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CB1" t="s">
         <v>297</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CC1" t="s">
         <v>298</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CD1" t="s">
         <v>299</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CE1" t="s">
         <v>300</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CF1" t="s">
         <v>301</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CG1" t="s">
         <v>302</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CH1" t="s">
         <v>303</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CI1" t="s">
         <v>304</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CJ1" t="s">
         <v>305</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CK1" t="s">
         <v>306</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CL1" t="s">
         <v>307</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CM1" t="s">
         <v>308</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CN1" t="s">
         <v>309</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CO1" t="s">
         <v>310</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CP1" t="s">
         <v>311</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CQ1" t="s">
         <v>312</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CR1" t="s">
         <v>313</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CS1" t="s">
         <v>314</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CT1" t="s">
         <v>315</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CU1" t="s">
         <v>316</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CV1" t="s">
         <v>317</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CW1" t="s">
         <v>318</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CX1" t="s">
         <v>319</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CY1" t="s">
         <v>320</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CZ1" t="s">
         <v>321</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DA1" t="s">
         <v>322</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DB1" t="s">
         <v>323</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DC1" t="s">
         <v>324</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DD1" t="s">
         <v>325</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DE1" t="s">
         <v>326</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DF1" t="s">
         <v>327</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DG1" t="s">
         <v>328</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DH1" t="s">
         <v>329</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DI1" t="s">
         <v>330</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DJ1" t="s">
         <v>331</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DK1" t="s">
         <v>332</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DL1" t="s">
         <v>333</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DM1" t="s">
         <v>334</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DN1" t="s">
         <v>335</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DO1" t="s">
         <v>336</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DP1" t="s">
         <v>337</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DQ1" t="s">
         <v>338</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DR1" t="s">
         <v>339</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DS1" t="s">
         <v>340</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DT1" t="s">
         <v>341</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DU1" t="s">
         <v>342</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DV1" t="s">
         <v>343</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DW1" t="s">
         <v>344</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DX1" t="s">
         <v>345</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DY1" t="s">
         <v>346</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DZ1" t="s">
         <v>347</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EA1" t="s">
         <v>348</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EB1" t="s">
         <v>349</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EC1" t="s">
         <v>350</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="ED1" t="s">
         <v>351</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EE1" t="s">
         <v>352</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EF1" t="s">
         <v>353</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EG1" t="s">
         <v>354</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EH1" t="s">
         <v>355</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EI1" t="s">
         <v>356</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EJ1" t="s">
         <v>357</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EK1" t="s">
         <v>358</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EL1" t="s">
         <v>359</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EM1" t="s">
         <v>360</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EN1" t="s">
         <v>361</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EO1" t="s">
         <v>362</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EP1" t="s">
         <v>363</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EQ1" t="s">
         <v>364</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="ER1" t="s">
         <v>365</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ES1" t="s">
         <v>366</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ET1" t="s">
         <v>367</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="EU1" t="s">
         <v>368</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EV1" t="s">
         <v>369</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EW1" t="s">
         <v>370</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EX1" t="s">
         <v>371</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EY1" t="s">
         <v>372</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EZ1" t="s">
         <v>373</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FA1" t="s">
         <v>374</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FB1" t="s">
         <v>375</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FC1" t="s">
         <v>376</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FD1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>378</v>
       </c>
@@ -6540,13 +6460,13 @@
         <v>395</v>
       </c>
       <c r="AU2" t="s">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="AV2" t="s">
-        <v>36</v>
+        <v>397</v>
       </c>
       <c r="AW2" t="s">
-        <v>36</v>
+        <v>398</v>
       </c>
       <c r="AX2" t="s">
         <v>36</v>
@@ -6561,7 +6481,7 @@
         <v>36</v>
       </c>
       <c r="BB2" t="s">
-        <v>36</v>
+        <v>399</v>
       </c>
       <c r="BC2" t="s">
         <v>36</v>
@@ -6588,25 +6508,25 @@
         <v>36</v>
       </c>
       <c r="BK2" t="s">
-        <v>396</v>
+        <v>36</v>
       </c>
       <c r="BL2" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="BM2" t="s">
-        <v>398</v>
+        <v>36</v>
       </c>
       <c r="BN2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BO2" t="s">
-        <v>36</v>
+        <v>401</v>
       </c>
       <c r="BP2" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="BQ2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="BR2" t="s">
         <v>36</v>
@@ -6615,13 +6535,13 @@
         <v>36</v>
       </c>
       <c r="BT2" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="BU2" t="s">
         <v>36</v>
       </c>
       <c r="BV2" t="s">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="BW2" t="s">
         <v>36</v>
@@ -6630,7 +6550,7 @@
         <v>36</v>
       </c>
       <c r="BY2" t="s">
-        <v>36</v>
+        <v>405</v>
       </c>
       <c r="BZ2" t="s">
         <v>36</v>
@@ -6657,25 +6577,25 @@
         <v>36</v>
       </c>
       <c r="CH2" t="s">
-        <v>402</v>
+        <v>36</v>
       </c>
       <c r="CI2" t="s">
-        <v>403</v>
+        <v>36</v>
       </c>
       <c r="CJ2" t="s">
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="CL2" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="CM2" t="s">
         <v>36</v>
       </c>
       <c r="CN2" t="s">
-        <v>36</v>
+        <v>408</v>
       </c>
       <c r="CO2" t="s">
         <v>36</v>
@@ -6684,17 +6604,17 @@
         <v>36</v>
       </c>
       <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>381</v>
       </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
       <c r="CU2" t="s">
         <v>36</v>
       </c>
@@ -6711,7 +6631,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>405</v>
+        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -6720,7 +6640,7 @@
         <v>36</v>
       </c>
       <c r="DC2" t="s">
-        <v>36</v>
+        <v>409</v>
       </c>
       <c r="DD2" t="s">
         <v>36</v>
@@ -6774,55 +6694,55 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>406</v>
+        <v>36</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>407</v>
+        <v>36</v>
       </c>
       <c r="DX2" t="s">
-        <v>36</v>
+        <v>410</v>
       </c>
       <c r="DY2" t="s">
         <v>36</v>
       </c>
       <c r="DZ2" t="s">
-        <v>36</v>
+        <v>411</v>
       </c>
       <c r="EA2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="EB2" t="s">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="EC2" t="s">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="ED2" t="s">
-        <v>36</v>
+        <v>413</v>
       </c>
       <c r="EE2" t="s">
-        <v>36</v>
+        <v>414</v>
       </c>
       <c r="EF2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="EG2" t="s">
-        <v>412</v>
+        <v>36</v>
       </c>
       <c r="EH2" t="s">
-        <v>413</v>
+        <v>36</v>
       </c>
       <c r="EI2" t="s">
-        <v>36</v>
+        <v>416</v>
       </c>
       <c r="EJ2" t="s">
-        <v>36</v>
+        <v>417</v>
       </c>
       <c r="EK2" t="s">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="EL2" t="s">
         <v>36</v>
@@ -6834,42 +6754,51 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>386</v>
       </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>414</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>415</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>416</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>419</v>
       </c>
       <c r="EW2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>421</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>422</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6889,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="427">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -586,6 +586,12 @@
   </si>
   <si>
     <t>villosa</t>
+  </si>
+  <si>
+    <t>247194</t>
+  </si>
+  <si>
+    <t>Tetilla</t>
   </si>
   <si>
     <t>213993</t>
@@ -1664,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5226,43 +5232,43 @@
         <v>68</v>
       </c>
       <c r="H35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" t="s">
+        <v>188</v>
+      </c>
+      <c r="O35" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>36</v>
+      </c>
+      <c r="R35" t="s">
         <v>192</v>
       </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M35" t="s">
-        <v>36</v>
-      </c>
-      <c r="N35" t="s">
-        <v>194</v>
-      </c>
-      <c r="O35" t="s">
-        <v>36</v>
-      </c>
-      <c r="P35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>36</v>
-      </c>
-      <c r="R35" t="s">
-        <v>195</v>
-      </c>
       <c r="S35" t="s">
         <v>36</v>
       </c>
       <c r="T35" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="U35" t="s">
         <v>36</v>
@@ -5274,7 +5280,7 @@
         <v>36</v>
       </c>
       <c r="X35" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="s">
         <v>36</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -5330,13 +5336,13 @@
         <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I36" t="s">
         <v>36</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K36" t="s">
         <v>36</v>
@@ -5348,7 +5354,7 @@
         <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O36" t="s">
         <v>36</v>
@@ -5360,13 +5366,13 @@
         <v>36</v>
       </c>
       <c r="R36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="S36" t="s">
         <v>36</v>
       </c>
       <c r="T36" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="U36" t="s">
         <v>36</v>
@@ -5378,7 +5384,7 @@
         <v>36</v>
       </c>
       <c r="X36" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Y36" t="s">
         <v>36</v>
@@ -5413,7 +5419,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
@@ -5434,13 +5440,13 @@
         <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I37" t="s">
         <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K37" t="s">
         <v>36</v>
@@ -5452,7 +5458,7 @@
         <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O37" t="s">
         <v>36</v>
@@ -5464,7 +5470,7 @@
         <v>36</v>
       </c>
       <c r="R37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="S37" t="s">
         <v>36</v>
@@ -5517,7 +5523,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
@@ -5535,46 +5541,46 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" t="s">
+        <v>202</v>
+      </c>
+      <c r="O38" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" t="s">
         <v>203</v>
       </c>
-      <c r="H38" t="s">
-        <v>204</v>
-      </c>
-      <c r="I38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" t="s">
-        <v>205</v>
-      </c>
-      <c r="K38" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" t="s">
-        <v>36</v>
-      </c>
-      <c r="N38" t="s">
-        <v>206</v>
-      </c>
-      <c r="O38" t="s">
-        <v>36</v>
-      </c>
-      <c r="P38" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>36</v>
-      </c>
-      <c r="R38" t="s">
-        <v>207</v>
-      </c>
       <c r="S38" t="s">
         <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="U38" t="s">
         <v>36</v>
@@ -5586,7 +5592,7 @@
         <v>36</v>
       </c>
       <c r="X38" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="Y38" t="s">
         <v>36</v>
@@ -5621,7 +5627,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
         <v>35</v>
@@ -5639,47 +5645,47 @@
         <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
       </c>
       <c r="J39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" t="s">
+        <v>36</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>208</v>
+      </c>
+      <c r="O39" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>36</v>
+      </c>
+      <c r="R39" t="s">
+        <v>209</v>
+      </c>
+      <c r="S39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" t="s">
         <v>210</v>
       </c>
-      <c r="K39" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" t="s">
-        <v>36</v>
-      </c>
-      <c r="M39" t="s">
-        <v>36</v>
-      </c>
-      <c r="N39" t="s">
-        <v>211</v>
-      </c>
-      <c r="O39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>36</v>
-      </c>
-      <c r="R39" t="s">
-        <v>212</v>
-      </c>
-      <c r="S39" t="s">
-        <v>36</v>
-      </c>
-      <c r="T39" t="s">
-        <v>213</v>
-      </c>
       <c r="U39" t="s">
         <v>36</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>36</v>
       </c>
       <c r="X39" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="Y39" t="s">
         <v>36</v>
@@ -5725,7 +5731,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
@@ -5743,16 +5749,16 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I40" t="s">
         <v>36</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K40" t="s">
         <v>36</v>
@@ -5764,7 +5770,7 @@
         <v>36</v>
       </c>
       <c r="N40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O40" t="s">
         <v>36</v>
@@ -5776,54 +5782,158 @@
         <v>36</v>
       </c>
       <c r="R40" t="s">
+        <v>214</v>
+      </c>
+      <c r="S40" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" t="s">
+        <v>215</v>
+      </c>
+      <c r="U40" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" t="s">
         <v>216</v>
       </c>
-      <c r="S40" t="s">
-        <v>36</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="Y40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>217</v>
       </c>
-      <c r="U40" t="s">
-        <v>36</v>
-      </c>
-      <c r="V40" t="s">
-        <v>36</v>
-      </c>
-      <c r="W40" t="s">
-        <v>36</v>
-      </c>
-      <c r="X40" t="s">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>212</v>
+      </c>
+      <c r="K41" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" t="s">
+        <v>213</v>
+      </c>
+      <c r="O41" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" t="s">
         <v>218</v>
       </c>
-      <c r="Y40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH40" t="s">
+      <c r="S41" t="s">
+        <v>36</v>
+      </c>
+      <c r="T41" t="s">
+        <v>219</v>
+      </c>
+      <c r="U41" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" t="s">
+        <v>36</v>
+      </c>
+      <c r="W41" t="s">
+        <v>36</v>
+      </c>
+      <c r="X41" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5843,495 +5953,495 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="R1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="W1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="X1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Y1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Z1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AA1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AB1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AC1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AE1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AH1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AI1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AJ1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AK1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AO1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AP1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AQ1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AR1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AS1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AT1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AU1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AV1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AW1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AX1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AY1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AZ1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="BA1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BB1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="BC1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="BD1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="BE1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="BF1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="BG1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="BH1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="BI1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="BJ1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="BK1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="BL1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="BM1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="BN1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="BO1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="BP1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="BQ1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="BR1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BS1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="BT1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="BU1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="BV1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="BW1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="BX1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="BY1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="BZ1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="CA1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="CB1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="CC1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="CD1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="CE1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="CF1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="CG1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="CH1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="CI1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="CJ1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CK1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="CL1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="CM1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="CN1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="CO1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="CP1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="CQ1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="CR1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="CS1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="CT1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="CU1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="CV1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CX1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="CY1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="CZ1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="DA1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="DB1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="DC1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="DD1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="DE1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="DF1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="DG1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="DH1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="DI1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="DJ1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="DK1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="DL1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="DM1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="DN1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="DO1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="DP1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="DQ1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="DR1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="DS1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="DT1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="DU1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="DV1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="DW1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="DX1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="DY1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="DZ1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="EA1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="EB1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="EC1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="ED1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="EE1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="EF1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="EG1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="EH1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="EI1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="EJ1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="EK1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="EL1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="EM1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="EN1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="EO1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="EP1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="EQ1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="ER1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="ES1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="ET1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="EU1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="EV1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="EW1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="EX1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="EY1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="EZ1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="FA1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="FB1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="FC1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="FD1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -6343,428 +6453,428 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>387</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>388</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>401</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>402</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>403</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>408</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>383</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>385</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>386</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>411</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>412</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>413</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>414</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>415</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>416</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>417</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>418</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>419</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>420</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>388</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>389</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>390</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>391</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>399</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>400</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>401</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>402</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>403</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>404</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>405</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>406</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>407</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>408</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>409</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>410</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>411</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>412</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>413</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>414</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>415</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>416</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>417</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>418</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>386</v>
-      </c>
       <c r="ES2" t="s">
         <v>36</v>
       </c>
@@ -6775,19 +6885,19 @@
         <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="EW2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="EX2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="FA2" t="s">
         <v>36</v>
@@ -6818,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -270,7 +270,7 @@
     <t>Adocia</t>
   </si>
   <si>
-    <t>129864</t>
+    <t>1227087</t>
   </si>
   <si>
     <t>Haliclona</t>

--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="420">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -804,15 +804,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -1155,9 +1146,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -1200,15 +1188,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -1218,7 +1197,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -5945,970 +5924,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="T1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="W1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="X1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Y1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AB1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AD1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AH1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AI1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AQ1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AR1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AS1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AT1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AU1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AV1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AW1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AX1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AY1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AZ1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BA1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BB1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BC1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BD1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BE1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BF1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BH1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BI1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BJ1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BK1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BL1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BM1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BN1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BO1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BP1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BQ1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BR1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BS1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BT1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BU1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BV1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BW1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BX1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BY1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BZ1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="CA1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="CB1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="CC1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CD1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CE1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CF1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CG1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="CH1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CI1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="CJ1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="CK1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CL1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CM1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CN1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="CO1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CP1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CQ1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CR1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CS1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CT1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CU1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="CV1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CW1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CX1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CY1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CZ1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="DA1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="DB1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="DC1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="DD1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="DE1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DF1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DG1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="DH1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DI1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DJ1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="DK1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DL1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="DM1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DN1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="DO1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="DP1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="DQ1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="DR1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DS1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DT1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DU1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DV1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DW1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="DX1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DY1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="DZ1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="EA1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="EB1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="EC1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="ED1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="EE1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="EF1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="EG1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="EH1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="EI1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="EJ1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="EK1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="EL1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="EM1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="EN1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="EO1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="EP1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="EQ1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="ER1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="ES1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="ET1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="EU1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="EV1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="EW1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="EX1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="EY1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="EZ1" t="s">
-        <v>375</v>
-      </c>
-      <c r="FA1" t="s">
         <v>376</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>377</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>378</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>380</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>381</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>382</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>383</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>384</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>386</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>387</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>388</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>389</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>390</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>391</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>392</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>393</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>394</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>395</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>396</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>397</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>398</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>399</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>400</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>401</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>402</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>403</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>404</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>405</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>406</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>407</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>408</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>409</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>410</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>383</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>411</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>412</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>413</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>384</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>414</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>415</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>416</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>417</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>418</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>419</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>420</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>388</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>421</v>
-      </c>
       <c r="EW2" t="s">
-        <v>422</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>423</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>424</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6928,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Porifera.xlsx
+++ b/data/dataPaper-I-in/arphified/Porifera.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="418">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -810,9 +810,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -1192,9 +1189,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -5924,10 +5918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>221</v>
       </c>
@@ -6393,466 +6387,463 @@
       <c r="EY1" t="s">
         <v>375</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>377</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>379</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>380</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>381</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>382</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>383</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>384</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>385</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>386</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>387</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>388</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>389</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>390</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>391</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>392</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>393</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>394</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>395</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>396</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>397</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>398</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>399</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>400</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>401</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>402</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>403</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>404</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>405</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>406</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>407</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>408</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>409</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>410</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>411</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>383</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>412</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>413</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>384</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>414</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>415</v>
       </c>
-      <c r="ET2" t="s">
-        <v>416</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>417</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -6861,9 +6852,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6883,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
